--- a/report/manuscript extras/svm_stats.xlsx
+++ b/report/manuscript extras/svm_stats.xlsx
@@ -608,46 +608,46 @@
         <v>26</v>
       </c>
       <c r="C5">
-        <v>112</v>
+        <v>272</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="E5">
-        <v>107</v>
+        <v>289</v>
       </c>
       <c r="F5">
-        <v>0.8478260869565217</v>
+        <v>0.9161073825503355</v>
       </c>
       <c r="G5">
-        <v>0.5366165653981451</v>
+        <v>0.2521582011644246</v>
       </c>
       <c r="H5">
-        <v>0.631578947368421</v>
+        <v>0.2857142857142858</v>
       </c>
       <c r="I5">
-        <v>0.6923076923076923</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="J5">
-        <v>0.8839285714285714</v>
+        <v>0.9852941176470589</v>
       </c>
       <c r="K5">
-        <v>0.5806451612903225</v>
+        <v>0.5555555555555565</v>
       </c>
       <c r="L5">
-        <v>0.9252336448598131</v>
+        <v>0.9273356401384083</v>
       </c>
       <c r="M5">
-        <v>0.5806451612903226</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="N5">
-        <v>0.6923076923076923</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="O5">
-        <v>0.1304347826086956</v>
+        <v>0.01677852348993289</v>
       </c>
       <c r="P5">
-        <v>0.7881181318681318</v>
+        <v>0.5888009049773756</v>
       </c>
     </row>
     <row r="6">
@@ -712,46 +712,46 @@
         <v>26</v>
       </c>
       <c r="C7">
-        <v>112</v>
+        <v>272</v>
       </c>
       <c r="D7">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E7">
-        <v>100</v>
+        <v>288</v>
       </c>
       <c r="F7">
-        <v>0.8115942028985508</v>
+        <v>0.912751677852349</v>
       </c>
       <c r="G7">
-        <v>0.4766627771295218</v>
+        <v>0.2409874608150466</v>
       </c>
       <c r="H7">
-        <v>0.5937499999999999</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="I7">
-        <v>0.7307692307692307</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="J7">
-        <v>0.8303571428571429</v>
+        <v>0.9816176470588235</v>
       </c>
       <c r="K7">
-        <v>0.5</v>
+        <v>0.4999999999999994</v>
       </c>
       <c r="L7">
-        <v>0.93</v>
+        <v>0.9270833333333334</v>
       </c>
       <c r="M7">
         <v>0.5</v>
       </c>
       <c r="N7">
-        <v>0.7307692307692307</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="O7">
-        <v>0.1376811594202899</v>
+        <v>0.01677852348993289</v>
       </c>
       <c r="P7">
-        <v>0.7805631868131868</v>
+        <v>0.5869626696832579</v>
       </c>
     </row>
   </sheetData>
@@ -799,10 +799,10 @@
         <v>0.5737704918032784</v>
       </c>
       <c r="C2">
-        <v>0.3984958205743606</v>
+        <v>0.3877620127816432</v>
       </c>
       <c r="D2">
-        <v>0.7326649528706085</v>
+        <v>0.7547169811320756</v>
       </c>
     </row>
     <row r="3">
@@ -815,10 +815,10 @@
         <v>0.6481481481481481</v>
       </c>
       <c r="C3">
-        <v>0.445204673671827</v>
+        <v>0.4431722689075631</v>
       </c>
       <c r="D3">
-        <v>0.8248309772587583</v>
+        <v>0.8246207744314689</v>
       </c>
     </row>
     <row r="4">
@@ -831,10 +831,10 @@
         <v>0.6343949044585986</v>
       </c>
       <c r="C4">
-        <v>0.5488049060655715</v>
+        <v>0.5550112052299593</v>
       </c>
       <c r="D4">
-        <v>0.7142057299501923</v>
+        <v>0.7202906500138243</v>
       </c>
     </row>
     <row r="5">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.5366165653981451</v>
+        <v>0.2521582011644246</v>
       </c>
       <c r="C5">
-        <v>0.3420958233131992</v>
+        <v>0.06194576568985186</v>
       </c>
       <c r="D5">
-        <v>0.7006899772916327</v>
+        <v>0.4416620096382677</v>
       </c>
     </row>
     <row r="6">
@@ -863,10 +863,10 @@
         <v>0.1945258391049544</v>
       </c>
       <c r="C6">
-        <v>0.1198163473303518</v>
+        <v>0.1197688666423641</v>
       </c>
       <c r="D6">
-        <v>0.264000345915256</v>
+        <v>0.2701431134395396</v>
       </c>
     </row>
     <row r="7">
@@ -876,13 +876,13 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.4766627771295218</v>
+        <v>0.2409874608150466</v>
       </c>
       <c r="C7">
-        <v>0.3074176517081892</v>
+        <v>0.04772472477920345</v>
       </c>
       <c r="D7">
-        <v>0.6418320399778966</v>
+        <v>0.4442602569415655</v>
       </c>
     </row>
   </sheetData>
@@ -930,10 +930,10 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="C2">
-        <v>0.7608695652173914</v>
+        <v>0.7473655292076344</v>
       </c>
       <c r="D2">
-        <v>0.9032258064516129</v>
+        <v>0.9091164453524003</v>
       </c>
     </row>
     <row r="3">
@@ -946,10 +946,10 @@
         <v>0.7878787878787878</v>
       </c>
       <c r="C3">
-        <v>0.6451612903225806</v>
+        <v>0.6284821428571429</v>
       </c>
       <c r="D3">
-        <v>0.9232142857142857</v>
+        <v>0.9211032388663968</v>
       </c>
     </row>
     <row r="4">
@@ -962,10 +962,10 @@
         <v>0.6521739130434783</v>
       </c>
       <c r="C4">
-        <v>0.5724918211559432</v>
+        <v>0.5714021164021164</v>
       </c>
       <c r="D4">
-        <v>0.7318968156766688</v>
+        <v>0.7266350555918901</v>
       </c>
     </row>
     <row r="5">
@@ -975,13 +975,13 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.6923076923076923</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="C5">
-        <v>0.5172413793103449</v>
+        <v>0.04535984848484849</v>
       </c>
       <c r="D5">
-        <v>0.863784584980237</v>
+        <v>0.3636363636363636</v>
       </c>
     </row>
     <row r="6">
@@ -994,10 +994,10 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="C6">
-        <v>0.1068702290076336</v>
+        <v>0.09922051392323405</v>
       </c>
       <c r="D6">
-        <v>0.2313448254594795</v>
+        <v>0.2262845004562044</v>
       </c>
     </row>
     <row r="7">
@@ -1007,13 +1007,13 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.7307692307692307</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="C7">
-        <v>0.5554597701149426</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="D7">
-        <v>0.8947822141560797</v>
+        <v>0.3571428571428572</v>
       </c>
     </row>
   </sheetData>
@@ -1077,7 +1077,7 @@
         <v>0.875</v>
       </c>
       <c r="C3">
-        <v>0.7306818181818182</v>
+        <v>0.7366028708133971</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1093,10 +1093,10 @@
         <v>0.9448529411764706</v>
       </c>
       <c r="C4">
-        <v>0.9157509157509157</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="D4">
-        <v>0.9692366412213741</v>
+        <v>0.9693602255476035</v>
       </c>
     </row>
     <row r="5">
@@ -1106,13 +1106,13 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.8839285714285714</v>
+        <v>0.9852941176470589</v>
       </c>
       <c r="C5">
-        <v>0.8198198198198198</v>
+        <v>0.9696940891807813</v>
       </c>
       <c r="D5">
-        <v>0.940220385674931</v>
+        <v>0.9964032000206288</v>
       </c>
     </row>
     <row r="6">
@@ -1125,7 +1125,7 @@
         <v>0.9889705882352942</v>
       </c>
       <c r="C6">
-        <v>0.9767396438953488</v>
+        <v>0.9746307134894091</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1138,13 +1138,13 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.8303571428571429</v>
+        <v>0.9816176470588235</v>
       </c>
       <c r="C7">
-        <v>0.7610619469026548</v>
+        <v>0.9646580234649095</v>
       </c>
       <c r="D7">
-        <v>0.8942434210526317</v>
+        <v>0.996309963099631</v>
       </c>
     </row>
   </sheetData>
